--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,6 +60,18 @@
   <si>
     <t>3号</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>7号</t>
   </si>
 </sst>
 </file>
@@ -441,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="23.25"/>
@@ -494,6 +506,38 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
